--- a/result/diverse/diverse1/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse1/LengthAngleSafety.xlsx
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3348426994744223</v>
+        <v>0.3113170368032663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009715188396842701</v>
+        <v>0.008462886598302782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5392124029546348</v>
+        <v>0.5094707660835839</v>
       </c>
     </row>
   </sheetData>

--- a/result/diverse/diverse1/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse1/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4663998226410694</v>
+        <v>0.6251507870414386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01719316585839441</v>
+        <v>0.01806664718814597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6738066130071204</v>
+        <v>0.845321769902543</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,29 @@
         <v>0.3113170368032663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008462886598302782</v>
+        <v>0.006999774671284044</v>
       </c>
       <c r="E5" t="n">
         <v>0.5094707660835839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7573459422768216</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02719741163277957</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7429682400799604</v>
       </c>
     </row>
   </sheetData>

--- a/result/diverse/diverse1/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse1/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">
